--- a/Mifos Automation Excels/Login/Login.xlsx
+++ b/Mifos Automation Excels/Login/Login.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Verify" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -21,10 +21,10 @@
     <t>username</t>
   </si>
   <si>
-    <t>mifos</t>
+    <t>password</t>
   </si>
   <si>
-    <t>password</t>
+    <t>mifos</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,19 +390,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -410,7 +411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Mifos Automation Excels/Login/Login.xlsx
+++ b/Mifos Automation Excels/Login/Login.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mifos Automation Excels/Login/Login.xlsx
+++ b/Mifos Automation Excels/Login/Login.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Login\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
@@ -24,13 +29,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>mifos</t>
+    <t>conflux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,6 +91,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -133,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,9 +174,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +226,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,7 +422,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
